--- a/realestatedata.xlsx
+++ b/realestatedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeffers\Documents\UiPath\UdemyCourse\Robots\Robot4_RealEstateScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBB44B9-18CA-4A4E-A3A6-936BE7A66466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E130BB2-0601-45C6-97C3-991BAB91130E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50265" yWindow="2820" windowWidth="13245" windowHeight="7410" xr2:uid="{9CD18BFF-5186-4E85-A5D9-24B5FB4A3B85}"/>
+    <workbookView minimized="1" xWindow="50265" yWindow="2820" windowWidth="13245" windowHeight="7410" xr2:uid="{9CD18BFF-5186-4E85-A5D9-24B5FB4A3B85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,23 +33,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
-  <si>
-    <t>68 m²</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+  <si>
+    <t>89 m²</t>
+  </si>
+  <si>
+    <t>R 1 200 000</t>
+  </si>
+  <si>
+    <t>72 m²</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>Floor Size</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
   <si>
     <t>R 1 090 000</t>
   </si>
   <si>
-    <t>89 m²</t>
-  </si>
-  <si>
     <t>Thornton</t>
   </si>
   <si>
-    <t>R 1 200 000</t>
-  </si>
-  <si>
     <t>64 m²</t>
   </si>
   <si>
@@ -98,94 +113,91 @@
     <t>Kirstenhof</t>
   </si>
   <si>
+    <t>R 2 800 000</t>
+  </si>
+  <si>
+    <t>154 m²</t>
+  </si>
+  <si>
+    <t>Kenilworth</t>
+  </si>
+  <si>
+    <t>R 3 195 000</t>
+  </si>
+  <si>
+    <t>148 m²</t>
+  </si>
+  <si>
+    <t>Tokai</t>
+  </si>
+  <si>
+    <t>R 3 299 000</t>
+  </si>
+  <si>
+    <t>81 m²</t>
+  </si>
+  <si>
+    <t>Constantia</t>
+  </si>
+  <si>
+    <t>R 3 450 000</t>
+  </si>
+  <si>
+    <t>R 3 595 000</t>
+  </si>
+  <si>
+    <t>147 m²</t>
+  </si>
+  <si>
+    <t>R 3 695 000</t>
+  </si>
+  <si>
+    <t>200 m²</t>
+  </si>
+  <si>
+    <t>Kenilworth Upper</t>
+  </si>
+  <si>
+    <t>R 4 300 000</t>
+  </si>
+  <si>
+    <t>260 m²</t>
+  </si>
+  <si>
+    <t>Lakeside</t>
+  </si>
+  <si>
+    <t>R 4 800 000</t>
+  </si>
+  <si>
+    <t>115 m²</t>
+  </si>
+  <si>
+    <t>Newlands</t>
+  </si>
+  <si>
+    <t>R 5 295 000</t>
+  </si>
+  <si>
+    <t>314 m²</t>
+  </si>
+  <si>
+    <t>Claremont</t>
+  </si>
+  <si>
+    <t>R 8 300 000</t>
+  </si>
+  <si>
+    <t>Green Point</t>
+  </si>
+  <si>
+    <t>R 999 999</t>
+  </si>
+  <si>
     <t>R 1 995 000</t>
   </si>
   <si>
     <t>109 m²</t>
-  </si>
-  <si>
-    <t>R 2 800 000</t>
-  </si>
-  <si>
-    <t>154 m²</t>
-  </si>
-  <si>
-    <t>Kenilworth</t>
-  </si>
-  <si>
-    <t>R 3 195 000</t>
-  </si>
-  <si>
-    <t>148 m²</t>
-  </si>
-  <si>
-    <t>Tokai</t>
-  </si>
-  <si>
-    <t>R 3 300 000</t>
-  </si>
-  <si>
-    <t>81 m²</t>
-  </si>
-  <si>
-    <t>Constantia</t>
-  </si>
-  <si>
-    <t>R 3 450 000</t>
-  </si>
-  <si>
-    <t>R 3 595 000</t>
-  </si>
-  <si>
-    <t>147 m²</t>
-  </si>
-  <si>
-    <t>R 3 695 000</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>Kenilworth Upper</t>
-  </si>
-  <si>
-    <t>R 4 300 000</t>
-  </si>
-  <si>
-    <t>260 m²</t>
-  </si>
-  <si>
-    <t>Lakeside</t>
-  </si>
-  <si>
-    <t>R 4 800 000</t>
-  </si>
-  <si>
-    <t>115 m²</t>
-  </si>
-  <si>
-    <t>Newlands</t>
-  </si>
-  <si>
-    <t>R 5 295 000</t>
-  </si>
-  <si>
-    <t>314 m²</t>
-  </si>
-  <si>
-    <t>Claremont</t>
-  </si>
-  <si>
-    <t>R 8 300 000</t>
-  </si>
-  <si>
-    <t>Green Point</t>
-  </si>
-  <si>
-    <t>R 999 999</t>
-  </si>
-  <si>
-    <t>72 m²</t>
   </si>
 </sst>
 </file>
@@ -537,26 +549,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8936C325-3196-462F-87B7-8B94204BF094}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -565,15 +588,15 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -582,15 +605,15 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -599,32 +622,32 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -633,32 +656,32 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -667,15 +690,15 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -684,15 +707,15 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -701,15 +724,15 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -718,15 +741,15 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -735,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -746,21 +769,21 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -769,27 +792,27 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -797,10 +820,10 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -817,7 +840,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -834,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -851,18 +874,18 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -871,15 +894,15 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -888,10 +911,27 @@
         <v>1.5</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/realestatedata.xlsx
+++ b/realestatedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeffers\Documents\UiPath\UdemyCourse\Robots\Robot4_RealEstateScraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E130BB2-0601-45C6-97C3-991BAB91130E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8566345A-B693-4B9A-A169-D1CCE5D8D22F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="50265" yWindow="2820" windowWidth="13245" windowHeight="7410" xr2:uid="{9CD18BFF-5186-4E85-A5D9-24B5FB4A3B85}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>89 m²</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Tokai</t>
   </si>
   <si>
-    <t>R 3 299 000</t>
-  </si>
-  <si>
     <t>81 m²</t>
   </si>
   <si>
@@ -194,10 +191,7 @@
     <t>R 999 999</t>
   </si>
   <si>
-    <t>R 1 995 000</t>
-  </si>
-  <si>
-    <t>109 m²</t>
+    <t>R 3 300 000</t>
   </si>
 </sst>
 </file>
@@ -670,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -698,19 +692,19 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -749,7 +743,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -758,27 +752,27 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -792,117 +786,117 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -919,7 +913,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>2</v>
